--- a/KE5108-CA1-Part1/1A/WS1DataAnswer- Vaibhav.xlsx
+++ b/KE5108-CA1-Part1/1A/WS1DataAnswer- Vaibhav.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\developing intelligent systems for performing business analytics\Lecture Notes\Fangming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\developing intelligent systems for performing business analytics\Lecture Notes\Fangming\GitCode\KE5108_CAs\KE5108-CA1-Part1\1A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="solver_rel7" localSheetId="2" hidden="1">6</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.2</definedName>
     <definedName name="solver_rhs10" localSheetId="2" hidden="1">300</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">24</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
@@ -76,7 +76,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -994,7 +994,7 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1016,6 +1016,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -56182,8 +56183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56231,20 +56232,20 @@
       </c>
       <c r="C2" s="6">
         <f>E2-D2</f>
-        <v>2.0006556990220199</v>
+        <v>0.20016999999999996</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>23.796659999999999</v>
       </c>
       <c r="E2" s="9">
-        <v>2.0006556990220199</v>
+        <v>23.996829999999999</v>
       </c>
       <c r="F2" s="10">
         <v>2</v>
       </c>
       <c r="G2" s="7">
         <f>B2*C2</f>
-        <v>30.009835485330299</v>
+        <v>3.0025499999999994</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -56259,20 +56260,20 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C7" si="0">E3-D3</f>
-        <v>2.0001153361431236</v>
+        <v>0.19999960006183956</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <v>2.0001153361431236</v>
+        <v>0.19999960006183956</v>
       </c>
       <c r="F3" s="13">
         <v>3</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="1">B3*C3</f>
-        <v>20.001153361431236</v>
+        <v>1.9999960006183957</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -56287,20 +56288,20 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>23.993496918545961</v>
-      </c>
-      <c r="D4" s="11">
-        <v>6.173657612910267E-5</v>
+        <v>23.997869998180001</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.8199999999999999E-9</v>
       </c>
       <c r="E4" s="12">
-        <v>23.99355865512209</v>
+        <v>23.997869999999999</v>
       </c>
       <c r="F4" s="13">
         <v>6</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>191.94797534836769</v>
+        <v>191.98295998544</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -56315,20 +56316,20 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>4.255105870302299</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.544689954165749E-4</v>
+        <v>12.576889309</v>
+      </c>
+      <c r="D5" s="17">
+        <v>6.9100000000000003E-7</v>
       </c>
       <c r="E5" s="12">
-        <v>4.255260339297716</v>
+        <v>12.576890000000001</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>34.040846962418392</v>
+        <v>100.615114472</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -56343,20 +56344,20 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>2.0000553394810092</v>
+        <v>0.19991999999999877</v>
       </c>
       <c r="D6" s="11">
-        <v>0.20683253821786024</v>
+        <v>23.79748</v>
       </c>
       <c r="E6" s="12">
-        <v>2.2068878776988696</v>
+        <v>23.997399999999999</v>
       </c>
       <c r="F6" s="13">
         <v>5</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>24.000664073772111</v>
+        <v>2.3990399999999852</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -56371,13 +56372,13 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>15.306213458948541</v>
+        <v>17.316949999999999</v>
       </c>
       <c r="D7" s="14">
-        <v>0.5932160604330311</v>
+        <v>2.1226099999999999</v>
       </c>
       <c r="E7" s="15">
-        <v>15.899429519381572</v>
+        <v>19.43956</v>
       </c>
       <c r="F7" s="16">
         <v>1</v>
@@ -56401,8 +56402,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(G2:G7)</f>
-        <v>300.00047523131974</v>
+        <v>300.00047460000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -56417,7 +56417,7 @@
       </c>
       <c r="H9" s="5">
         <f>A19*D2+E2*B19+C19*F2+D19*D3*E19*E3+F19*F3+G19*D4+H19*E4+I19*F4+J19*D5+K19*E5+L19*F5+M19*D6+N19*E6+O19*F6+P19</f>
-        <v>331514.38355840975</v>
+        <v>411620.79341505375</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -56602,7 +56602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
